--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -1,21 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11190" windowHeight="6390" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
+    <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:K19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>HomePageTitle</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>actiTIME - Enter Time-Track</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,12 +362,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11190" windowHeight="6390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
     <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
+    <sheet name="InvalidLogin1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:K19"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>xyz</t>
+  </si>
+  <si>
+    <t>managew</t>
   </si>
 </sst>
 </file>
@@ -405,7 +408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -434,4 +437,52 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>